--- a/문서/자유수강권자 추가 환불(4월)/점핑클레이(재료).xlsx
+++ b/문서/자유수강권자 추가 환불(4월)/점핑클레이(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>주야</t>
   </si>
@@ -43,6 +43,15 @@
     <t>1학년</t>
   </si>
   <si>
+    <t>1반</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
     <t>3반</t>
   </si>
   <si>
@@ -50,6 +59,15 @@
   </si>
   <si>
     <t>박정철</t>
+  </si>
+  <si>
+    <t>6반</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>정현근</t>
   </si>
 </sst>
 </file>
@@ -57,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="32">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -191,8 +209,106 @@
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="30">
     <fill>
       <patternFill/>
     </fill>
@@ -241,8 +357,50 @@
     <fill>
       <patternFill/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -475,11 +633,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -540,6 +908,62 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="15" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="16" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="17" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="18" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="19" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="20" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="21" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="22" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="23" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="24" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="25" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="26" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="27" fillId="27" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="28" fillId="28" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="29" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -841,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +1319,52 @@
         <v>-13000</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c s="17" r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c s="18" r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c s="19" r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c s="20" r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c s="21" r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c s="22" r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c s="23" r="G3" t="n">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c s="24" r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c s="25" r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c s="26" r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c s="27" r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c s="28" r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c s="29" r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c s="30" r="G4" t="n">
+        <v>-13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
